--- a/Restored To Eden/Outputs/Formulation Sheets/monni hardstone-oil cleanser.xlsx
+++ b/Restored To Eden/Outputs/Formulation Sheets/monni hardstone-oil cleanser.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>monni hardstone</t>
+          <t>Monni Hardstone</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>oil cleanser</t>
+          <t>Oil Cleanser</t>
         </is>
       </c>
       <c r="C2" s="7" t="inlineStr">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="D7" s="10" t="n">
-        <v>66.8</v>
+        <v>66.5</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>33.4</v>
+        <v>33.25</v>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
@@ -831,7 +831,7 @@
     <row r="8" ht="17.4" customHeight="1">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>prunus armeniaca (apricot) kernel oil (certified organic)</t>
+          <t>Prunus armeniaca (Apricot) kernel oil (certified organic)</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="D8" s="10" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>7.55</v>
+        <v>7.6</v>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
@@ -874,14 +874,10 @@
       <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9" ht="17.4" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>camellia oleifera (camellia) refined seed oil (certified organic)</t>
-        </is>
-      </c>
+      <c r="A9" s="12" t="inlineStr"/>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>camellia</t>
+          <t>soybean</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
@@ -890,10 +886,10 @@
         </is>
       </c>
       <c r="D9" s="10" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>7.55</v>
+        <v>7.6</v>
       </c>
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="6" t="n"/>
@@ -921,7 +917,7 @@
     <row r="10" ht="17.4" customHeight="1">
       <c r="A10" s="12" t="inlineStr">
         <is>
-          <t>citrus limonum (lemon) oil (cold pressed) 100% pure essential oil</t>
+          <t>Citrus limonum (Lemon) oil (Cold Pressed) 100% pure essential oil</t>
         </is>
       </c>
       <c r="B10" s="13" t="inlineStr">
@@ -966,12 +962,12 @@
     <row r="11" ht="17.4" customHeight="1">
       <c r="A11" s="12" t="inlineStr">
         <is>
-          <t>nardostachys jatamansi (spikenard) essential oil egypt</t>
+          <t>Styrax benzoin (Benzoin) resinoid</t>
         </is>
       </c>
       <c r="B11" s="13" t="inlineStr">
         <is>
-          <t>spikenard egypt</t>
+          <t>benzoin</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr">

--- a/Restored To Eden/Outputs/Formulation Sheets/monni hardstone-oil cleanser.xlsx
+++ b/Restored To Eden/Outputs/Formulation Sheets/monni hardstone-oil cleanser.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="855" yWindow="-15390" windowWidth="16110" windowHeight="8025" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -519,11 +519,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA996"/>
+  <dimension ref="A1:AA999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -734,32 +734,14 @@
       <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6" ht="17.4" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>INCI Name</t>
+          <t>Expiry Date</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>Ingredient Name</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>Phase</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>% W/W</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>Total Grams/
-Amount in grams</t>
-        </is>
-      </c>
+      <c r="B6" s="8" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="6" t="n"/>
       <c r="H6" s="6" t="n"/>
@@ -784,26 +766,31 @@
       <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7" ht="17.4" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>INCI Name</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>Anhydrous [this ingredient doesn't change]</t>
+          <t>Ingredient Name</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Phase</t>
         </is>
       </c>
-      <c r="D7" s="10" t="n">
-        <v>66.5</v>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>% W/W</t>
+        </is>
       </c>
-      <c r="E7" s="10" t="n">
-        <v>33.25</v>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>Total Grams/
+Amount in grams</t>
+        </is>
       </c>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
@@ -831,12 +818,12 @@
     <row r="8" ht="17.4" customHeight="1">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>Prunus armeniaca (Apricot) kernel oil (certified organic)</t>
+          <t>INCI Name</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>apricot kernel oil</t>
+          <t>Anhydrous [this ingredient doesn't change]</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
@@ -845,10 +832,11 @@
         </is>
       </c>
       <c r="D8" s="10" t="n">
-        <v>15.2</v>
+        <v>66.5</v>
       </c>
-      <c r="E8" s="10" t="n">
-        <v>7.6</v>
+      <c r="E8" s="10">
+        <f>B5*D8/100</f>
+        <v/>
       </c>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
@@ -874,10 +862,14 @@
       <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9" ht="17.4" customHeight="1">
-      <c r="A9" s="12" t="inlineStr"/>
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>Prunus armeniaca (Apricot) kernel oil (certified organic)</t>
+        </is>
+      </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>soybean</t>
+          <t>apricot kernel oil</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
@@ -886,10 +878,11 @@
         </is>
       </c>
       <c r="D9" s="10" t="n">
-        <v>15.2</v>
+        <v>10.1</v>
       </c>
-      <c r="E9" s="10" t="n">
-        <v>7.6</v>
+      <c r="E9" s="10">
+        <f>B5*D9/100</f>
+        <v/>
       </c>
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="6" t="n"/>
@@ -917,12 +910,12 @@
     <row r="10" ht="17.4" customHeight="1">
       <c r="A10" s="12" t="inlineStr">
         <is>
-          <t>Citrus limonum (Lemon) oil (Cold Pressed) 100% pure essential oil</t>
+          <t>Simmondsia chinensis seed oil</t>
         </is>
       </c>
       <c r="B10" s="13" t="inlineStr">
         <is>
-          <t>lemon essential oil</t>
+          <t>jojoba oil</t>
         </is>
       </c>
       <c r="C10" s="10" t="inlineStr">
@@ -931,10 +924,11 @@
         </is>
       </c>
       <c r="D10" s="10" t="n">
-        <v>0.5</v>
+        <v>10.1</v>
       </c>
-      <c r="E10" s="10" t="n">
-        <v>0.25</v>
+      <c r="E10" s="10">
+        <f>B5*D10/100</f>
+        <v/>
       </c>
       <c r="F10" s="6" t="n"/>
       <c r="G10" s="6" t="n"/>
@@ -962,12 +956,12 @@
     <row r="11" ht="17.4" customHeight="1">
       <c r="A11" s="12" t="inlineStr">
         <is>
-          <t>Styrax benzoin (Benzoin) resinoid</t>
+          <t>Citrus limonum (Lemon) oil (Cold Pressed) 100% pure essential oil</t>
         </is>
       </c>
       <c r="B11" s="13" t="inlineStr">
         <is>
-          <t>benzoin</t>
+          <t>lemon essential oil</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr">
@@ -976,10 +970,11 @@
         </is>
       </c>
       <c r="D11" s="10" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
-      <c r="E11" s="10" t="n">
-        <v>0.25</v>
+      <c r="E11" s="10">
+        <f>B5*D11/100</f>
+        <v/>
       </c>
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="6" t="n"/>
@@ -1005,10 +1000,14 @@
       <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12" ht="17.4" customHeight="1">
-      <c r="A12" s="12" t="n"/>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="A12" s="12" t="inlineStr">
         <is>
-          <t>Antioxidant [this ingredient doesn't change]</t>
+          <t>Rosmarinus officinalis (Rosemary) essential oil</t>
+        </is>
+      </c>
+      <c r="B12" s="13" t="inlineStr">
+        <is>
+          <t>rosemary essential oil</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
@@ -1017,10 +1016,11 @@
         </is>
       </c>
       <c r="D12" s="10" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
-      <c r="E12" s="10" t="n">
-        <v>1</v>
+      <c r="E12" s="10">
+        <f>B5*D12/100</f>
+        <v/>
       </c>
       <c r="F12" s="6" t="n"/>
       <c r="G12" s="6" t="n"/>
@@ -1046,11 +1046,28 @@
       <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13" ht="17.4" customHeight="1">
-      <c r="A13" s="12" t="n"/>
-      <c r="B13" s="12" t="n"/>
-      <c r="C13" s="10" t="n"/>
-      <c r="D13" s="10" t="n"/>
-      <c r="E13" s="10" t="n"/>
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>Styrax benzoin (Benzoin) resinoid</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="inlineStr">
+        <is>
+          <t>benzoin</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="10">
+        <f>B5*D13/100</f>
+        <v/>
+      </c>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
@@ -1076,10 +1093,23 @@
     </row>
     <row r="14" ht="17.4" customHeight="1">
       <c r="A14" s="12" t="n"/>
-      <c r="B14" s="12" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>Antioxidant [this ingredient doesn't change]</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <f>B5*D14/100</f>
+        <v/>
+      </c>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
@@ -1104,40 +1134,31 @@
       <c r="AA14" s="6" t="n"/>
     </row>
     <row r="15" ht="17.4" customHeight="1">
-      <c r="A15" s="12" t="n"/>
-      <c r="B15" s="12" t="n"/>
-      <c r="C15" s="10" t="n"/>
-      <c r="D15" s="10" t="n"/>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="6" t="n"/>
-      <c r="G15" s="6" t="n"/>
-      <c r="H15" s="6" t="n"/>
-      <c r="I15" s="6" t="n"/>
-      <c r="J15" s="6" t="n"/>
-      <c r="K15" s="6" t="n"/>
-      <c r="L15" s="6" t="n"/>
-      <c r="M15" s="6" t="n"/>
-      <c r="N15" s="6" t="n"/>
-      <c r="O15" s="6" t="n"/>
-      <c r="P15" s="6" t="n"/>
-      <c r="Q15" s="6" t="n"/>
-      <c r="R15" s="6" t="n"/>
-      <c r="S15" s="6" t="n"/>
-      <c r="T15" s="6" t="n"/>
-      <c r="U15" s="6" t="n"/>
-      <c r="V15" s="6" t="n"/>
-      <c r="W15" s="6" t="n"/>
-      <c r="X15" s="6" t="n"/>
-      <c r="Y15" s="6" t="n"/>
-      <c r="Z15" s="6" t="n"/>
-      <c r="AA15" s="6" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cannabis sativa (Hemp) seed oil (certified organic)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>hemp seed oil certified organic</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="16" ht="17.4" customHeight="1">
       <c r="A16" s="12" t="n"/>
       <c r="B16" s="12" t="n"/>
       <c r="C16" s="10" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="14" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="10" t="n"/>
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
@@ -1165,8 +1186,8 @@
       <c r="A17" s="12" t="n"/>
       <c r="B17" s="12" t="n"/>
       <c r="C17" s="10" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="14" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="10" t="n"/>
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
@@ -1194,8 +1215,8 @@
       <c r="A18" s="12" t="n"/>
       <c r="B18" s="12" t="n"/>
       <c r="C18" s="10" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="14" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="10" t="n"/>
       <c r="F18" s="6" t="n"/>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
@@ -1221,20 +1242,10 @@
     </row>
     <row r="19" ht="17.4" customHeight="1">
       <c r="A19" s="12" t="n"/>
-      <c r="B19" s="12" t="inlineStr">
-        <is>
-          <t>TOTAL 100%</t>
-        </is>
-      </c>
-      <c r="C19" s="20" t="n"/>
-      <c r="D19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="14" t="n"/>
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -1259,10 +1270,11 @@
       <c r="AA19" s="6" t="n"/>
     </row>
     <row r="20" ht="17.4" customHeight="1">
-      <c r="A20" s="17" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="14" t="n"/>
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
@@ -1286,12 +1298,12 @@
       <c r="Z20" s="6" t="n"/>
       <c r="AA20" s="6" t="n"/>
     </row>
-    <row r="21" ht="36.75" customHeight="1">
-      <c r="A21" s="6" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+    <row r="21" ht="17.4" customHeight="1">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="14" t="n"/>
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
@@ -1315,12 +1327,22 @@
       <c r="Z21" s="6" t="n"/>
       <c r="AA21" s="6" t="n"/>
     </row>
-    <row r="22" ht="17.4" customHeight="1">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+    <row r="22" ht="36.75" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="12" t="inlineStr">
+        <is>
+          <t>TOTAL 100%</t>
+        </is>
+      </c>
+      <c r="C22" s="20" t="n"/>
+      <c r="D22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
@@ -1345,8 +1367,7 @@
       <c r="AA22" s="6" t="n"/>
     </row>
     <row r="23" ht="17.4" customHeight="1">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="A23" s="17" t="n"/>
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
@@ -29590,10 +29611,96 @@
       <c r="Z996" s="6" t="n"/>
       <c r="AA996" s="6" t="n"/>
     </row>
-    <row r="997" ht="17.4" customHeight="1"/>
+    <row r="997" ht="17.4" customHeight="1">
+      <c r="A997" s="6" t="n"/>
+      <c r="B997" s="6" t="n"/>
+      <c r="C997" s="6" t="n"/>
+      <c r="D997" s="6" t="n"/>
+      <c r="E997" s="6" t="n"/>
+      <c r="F997" s="6" t="n"/>
+      <c r="G997" s="6" t="n"/>
+      <c r="H997" s="6" t="n"/>
+      <c r="I997" s="6" t="n"/>
+      <c r="J997" s="6" t="n"/>
+      <c r="K997" s="6" t="n"/>
+      <c r="L997" s="6" t="n"/>
+      <c r="M997" s="6" t="n"/>
+      <c r="N997" s="6" t="n"/>
+      <c r="O997" s="6" t="n"/>
+      <c r="P997" s="6" t="n"/>
+      <c r="Q997" s="6" t="n"/>
+      <c r="R997" s="6" t="n"/>
+      <c r="S997" s="6" t="n"/>
+      <c r="T997" s="6" t="n"/>
+      <c r="U997" s="6" t="n"/>
+      <c r="V997" s="6" t="n"/>
+      <c r="W997" s="6" t="n"/>
+      <c r="X997" s="6" t="n"/>
+      <c r="Y997" s="6" t="n"/>
+      <c r="Z997" s="6" t="n"/>
+      <c r="AA997" s="6" t="n"/>
+    </row>
+    <row r="998" ht="17.4" customHeight="1">
+      <c r="A998" s="6" t="n"/>
+      <c r="B998" s="6" t="n"/>
+      <c r="C998" s="6" t="n"/>
+      <c r="D998" s="6" t="n"/>
+      <c r="E998" s="6" t="n"/>
+      <c r="F998" s="6" t="n"/>
+      <c r="G998" s="6" t="n"/>
+      <c r="H998" s="6" t="n"/>
+      <c r="I998" s="6" t="n"/>
+      <c r="J998" s="6" t="n"/>
+      <c r="K998" s="6" t="n"/>
+      <c r="L998" s="6" t="n"/>
+      <c r="M998" s="6" t="n"/>
+      <c r="N998" s="6" t="n"/>
+      <c r="O998" s="6" t="n"/>
+      <c r="P998" s="6" t="n"/>
+      <c r="Q998" s="6" t="n"/>
+      <c r="R998" s="6" t="n"/>
+      <c r="S998" s="6" t="n"/>
+      <c r="T998" s="6" t="n"/>
+      <c r="U998" s="6" t="n"/>
+      <c r="V998" s="6" t="n"/>
+      <c r="W998" s="6" t="n"/>
+      <c r="X998" s="6" t="n"/>
+      <c r="Y998" s="6" t="n"/>
+      <c r="Z998" s="6" t="n"/>
+      <c r="AA998" s="6" t="n"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="6" t="n"/>
+      <c r="B999" s="6" t="n"/>
+      <c r="C999" s="6" t="n"/>
+      <c r="D999" s="6" t="n"/>
+      <c r="E999" s="6" t="n"/>
+      <c r="F999" s="6" t="n"/>
+      <c r="G999" s="6" t="n"/>
+      <c r="H999" s="6" t="n"/>
+      <c r="I999" s="6" t="n"/>
+      <c r="J999" s="6" t="n"/>
+      <c r="K999" s="6" t="n"/>
+      <c r="L999" s="6" t="n"/>
+      <c r="M999" s="6" t="n"/>
+      <c r="N999" s="6" t="n"/>
+      <c r="O999" s="6" t="n"/>
+      <c r="P999" s="6" t="n"/>
+      <c r="Q999" s="6" t="n"/>
+      <c r="R999" s="6" t="n"/>
+      <c r="S999" s="6" t="n"/>
+      <c r="T999" s="6" t="n"/>
+      <c r="U999" s="6" t="n"/>
+      <c r="V999" s="6" t="n"/>
+      <c r="W999" s="6" t="n"/>
+      <c r="X999" s="6" t="n"/>
+      <c r="Y999" s="6" t="n"/>
+      <c r="Z999" s="6" t="n"/>
+      <c r="AA999" s="6" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
